--- a/data/EPA-mercury-data.xlsx
+++ b/data/EPA-mercury-data.xlsx
@@ -730,7 +730,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
